--- a/MEC_Meter/doku/IPS-Modul PowerMeter DataPoints.xlsx
+++ b/MEC_Meter/doku/IPS-Modul PowerMeter DataPoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\ownCube\SmartHome\Hardware\Smart Meter - Verbund (Flexiciency)\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E74A9C1-BF5E-4724-B8C1-6CF701E09D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5A685E-728A-40B9-8EE3-0D0D296914F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25830" yWindow="345" windowWidth="24255" windowHeight="22530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'API Power-Meter EN v.1.3'!$A$1:$F$119</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IPS-Modul Config Arr'!$A$1:$L$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IPS-Modul Config Arr'!$A$1:$K$122</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="563">
   <si>
     <t>F</t>
   </si>
@@ -1734,16 +1734,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1817,73 +1809,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2165,5160 +2149,4794 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="16" style="7" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="3" customWidth="1"/>
-    <col min="10" max="12" width="12.85546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="94.5703125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="8" customWidth="1"/>
+    <col min="4" max="5" width="16" style="7" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="94.5703125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>322</v>
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" s="7">
+        <v>10</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="K2" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M2" s="3" t="str">
+        <f t="shared" ref="M2:M63" si="0">"'"&amp;A2&amp;"' =&gt; ['"&amp;B2&amp;"', " &amp;C2&amp;", '"&amp;D2&amp;"', "&amp;E2 &amp;", " &amp;F2&amp;", '"&amp;G2&amp;"', '"&amp;H2&amp;"', " &amp; I2 &amp; ", " &amp;J2&amp;", "&amp;K2&amp;"],"</f>
+        <v>'F' =&gt; ['Frequency', VARIABLETYPE_FLOAT, 'SM.Hz.2', 1, 2, 'Basic', 'Basic', 10, 1, true],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="J2" s="7">
+      <c r="I3" s="7">
         <v>10</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N2" s="3" t="str">
-        <f t="shared" ref="N2:N63" si="0">"'"&amp;B2&amp;"' =&gt; ['"&amp;C2&amp;"', " &amp;D2&amp;", '"&amp;E2&amp;"', "&amp;F2 &amp;", " &amp;G2&amp;", '"&amp;H2&amp;"', '"&amp;I2&amp;"', " &amp; J2 &amp; ", " &amp;K2&amp;", "&amp;L2&amp;"],"</f>
-        <v>'F' =&gt; ['Frequency', VARIABLETYPE_FLOAT, 'SM.Hz.2', 1, 2, 'Basic', 'Basic', 10, 1, true],</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J3" s="7">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N3" s="3" t="str">
+      <c r="K3" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'T' =&gt; ['Internal Temperature', VARIABLETYPE_FLOAT, '~Temperature', 1, 2, 'Basic', 'Basic', 10, 2, true],</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="J4" s="7">
+      <c r="I4" s="7">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N4" s="3" t="str">
+      <c r="K4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'STATUS' =&gt; ['Status of the VPM ', VARIABLETYPE_INTEGER, '', 1, 0, 'Basic', 'Basic', 10, 3, true],</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>90</v>
+      <c r="B5" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="D5" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F5" s="4">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="J5" s="7">
+      <c r="I5" s="7">
         <v>10</v>
       </c>
-      <c r="K5">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N5" s="3" t="str">
+      <c r="K5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'TIME' =&gt; ['Operating Time (last fctory reset)', VARIABLETYPE_INTEGER, 'Duration.ms', 1, 0, 'Basic', 'Basic', 10, 4, true],</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>121</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
       <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="J6" s="7">
+      <c r="I6" s="7">
         <v>10</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N6" s="3" t="str">
+      <c r="K6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'SAMPLES' =&gt; ['Counter from the Quadrants updated values', VARIABLETYPE_INTEGER, '', 1, 0, 'Basic', 'Basic', 10, 5, true],</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I7" s="7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'PA' =&gt; ['Leistung L1', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'Px', 'Wirkleistung', 20, 6, true],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I8" s="7">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'PB' =&gt; ['Leistung L2', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'Px', 'Wirkleistung', 20, 7, true],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I9" s="7">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'PC' =&gt; ['Leistung L3', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'Px', 'Wirkleistung', 20, 8, true],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I10" s="7">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'PT' =&gt; ['Leistung Gesamt', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'Px', 'Wirkleistung', 20, 9, true],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" s="7">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'EFAA' =&gt; ['Wirkenergie Bezug L1', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'EFAx', 'Wirkenergie Bezug', 25, 10, true],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I12" s="7">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'EFAB' =&gt; ['Wirkenergie Bezug L2', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'EFAx', 'Wirkenergie Bezug', 25, 11, true],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'EFAC' =&gt; ['Wirkenergie Bezug L3', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'EFAx', 'Wirkenergie Bezug', 25, 12, true],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I14" s="7">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'EFAT' =&gt; ['Wirkenergie Bezug Total', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'EFAx', 'Wirkenergie Bezug', 25, 13, true],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="F15" s="20">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="J7" s="7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>'PA' =&gt; ['Leistung L1', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'Px', 'Wirkleistung', 10, 6, true],</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="J8" s="7">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>'PB' =&gt; ['Leistung L2', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'Px', 'Wirkleistung', 10, 7, true],</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="J9" s="7">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="N9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>'PC' =&gt; ['Leistung L3', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'Px', 'Wirkleistung', 10, 8, true],</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="J10" s="7">
-        <v>10</v>
-      </c>
-      <c r="K10">
-        <v>9</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="N10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>'PT' =&gt; ['Leistung Gesamt', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'Px', 'Wirkleistung', 10, 9, true],</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>49</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" s="7">
-        <v>3</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="J11" s="7">
-        <v>20</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>'EFAA' =&gt; ['Wirkenergie Bezug L1', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'EFAx', 'Wirkenergie Bezug', 20, 10, true],</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G12" s="7">
-        <v>3</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="J12" s="7">
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>'EFAB' =&gt; ['Wirkenergie Bezug L2', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'EFAx', 'Wirkenergie Bezug', 20, 11, true],</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>51</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G13" s="7">
-        <v>3</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="J13" s="7">
-        <v>20</v>
-      </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>'EFAC' =&gt; ['Wirkenergie Bezug L3', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'EFAx', 'Wirkenergie Bezug', 20, 12, true],</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G14" s="7">
-        <v>3</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="J14" s="7">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>13</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>'EFAT' =&gt; ['Wirkenergie Bezug Total', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'EFAx', 'Wirkenergie Bezug', 20, 13, true],</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="G15" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="I15" s="20">
         <v>999</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21">
-        <v>1</v>
-      </c>
-      <c r="G15" s="22">
-        <v>2</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="J15" s="22">
-        <v>999</v>
-      </c>
-      <c r="K15">
+      <c r="J15">
         <v>14</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="N15" s="3" t="str">
+      <c r="M15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'Stat ' =&gt; ['Status of Metering Chip', VARIABLETYPE_INTEGER, '', 1, 2, 'NULL', 'Advanced', 999, 14, false],</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+    <row r="16" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="20">
+        <v>2</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="20">
         <v>999</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22">
-        <v>2</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="J16" s="22">
-        <v>999</v>
-      </c>
-      <c r="K16">
+      <c r="J16">
         <v>15</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="N16" s="3" t="str">
+      <c r="M16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'IN1' =&gt; ['N Line Sampled current RMS', VARIABLETYPE_FLOAT, '', 1, 2, 'NULL', 'Advanced', 999, 15, false],</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>298</v>
+      <c r="C17" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I17" s="7">
+        <v>26</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'ERAA' =&gt; ['Wirkenergie Einspeisung L1', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'ERAx', 'Wirkenergie Einspeisung', 26, 16, true],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G17" s="7">
+      <c r="F18" s="7">
         <v>3</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="J17" s="7">
-        <v>21</v>
-      </c>
-      <c r="K17">
-        <v>16</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N17" s="3" t="str">
+      <c r="I18" s="7">
+        <v>26</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'ERAA' =&gt; ['Wirkenergie Einspeisung L1', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'ERAx', 'Wirkenergie Einspeisung', 21, 16, true],</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>66</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E18" s="4" t="s">
+        <v>'ERAB' =&gt; ['Wirkenergie Einspeisung L2', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'ERAx', 'Wirkenergie Einspeisung', 26, 17, true],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G18" s="7">
+      <c r="F19" s="7">
         <v>3</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="J18" s="7">
-        <v>21</v>
-      </c>
-      <c r="K18">
-        <v>17</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N18" s="3" t="str">
+      <c r="I19" s="7">
+        <v>26</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'ERAB' =&gt; ['Wirkenergie Einspeisung L2', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'ERAx', 'Wirkenergie Einspeisung', 21, 17, true],</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>67</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E19" s="4" t="s">
+        <v>'ERAC' =&gt; ['Wirkenergie Einspeisung L3', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'ERAx', 'Wirkenergie Einspeisung', 26, 18, true],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G19" s="7">
+      <c r="F20" s="7">
         <v>3</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="J19" s="7">
-        <v>21</v>
-      </c>
-      <c r="K19">
-        <v>18</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N19" s="3" t="str">
+      <c r="I20" s="7">
+        <v>26</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'ERAC' =&gt; ['Wirkenergie Einspeisung L3', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'ERAx', 'Wirkenergie Einspeisung', 21, 18, true],</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>68</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G20" s="7">
-        <v>3</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="J20" s="7">
-        <v>21</v>
-      </c>
-      <c r="K20">
-        <v>19</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>'ERAT' =&gt; ['Wirkenergie Einspeisung Total', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'ERAx', 'Wirkenergie Einspeisung', 21, 19, true],</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>'ERAT' =&gt; ['Wirkenergie Einspeisung Total', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'ERAx', 'Wirkenergie Einspeisung', 26, 19, true],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B21" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="C21" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F21" s="4">
+      <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="7">
+      <c r="F21" s="7">
         <v>2</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J21" s="7">
+      <c r="I21" s="7">
         <v>30</v>
       </c>
-      <c r="K21">
+      <c r="J21">
         <v>20</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N21" s="3" t="str">
+      <c r="K21" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'VA' =&gt; ['AC-Spannung L1', VARIABLETYPE_FLOAT, 'SM.Volt.2', 1, 2, 'Vx', 'AC-Spannung', 30, 20, true],</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B22" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="C22" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E22" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F22" s="4">
+      <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="7">
+      <c r="F22" s="7">
         <v>2</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J22" s="7">
+      <c r="I22" s="7">
         <v>30</v>
       </c>
-      <c r="K22">
+      <c r="J22">
         <v>21</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N22" s="3" t="str">
+      <c r="K22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'VB' =&gt; ['AC-Spannung L2', VARIABLETYPE_FLOAT, 'SM.Volt.2', 1, 2, 'Vx', 'AC-Spannung', 30, 21, true],</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B23" s="6" t="s">
+        <v>293</v>
+      </c>
       <c r="C23" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E23" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F23" s="4">
+      <c r="E23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="7">
+      <c r="F23" s="7">
         <v>2</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J23" s="7">
+      <c r="I23" s="7">
         <v>30</v>
       </c>
-      <c r="K23">
+      <c r="J23">
         <v>22</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N23" s="3" t="str">
+      <c r="K23" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'VC' =&gt; ['AC-Spannung L3', VARIABLETYPE_FLOAT, 'SM.Volt.2', 1, 2, 'Vx', 'AC-Spannung', 30, 22, true],</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>89</v>
+      <c r="B24" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E24" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F24" s="4">
+      <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="7">
+      <c r="F24" s="7">
         <v>2</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J24" s="7">
+      <c r="I24" s="7">
         <v>30</v>
       </c>
-      <c r="K24">
+      <c r="J24">
         <v>23</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N24" s="3" t="str">
+      <c r="K24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'VT' =&gt; ['durchschnittliche N-Phasen-Spannung ', VARIABLETYPE_FLOAT, 'SM.Volt.2', 1, 2, 'Vx', 'AC-Spannung', 30, 23, true],</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>85</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="B25" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="C25" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E25" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F25" s="4">
+      <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="7">
+      <c r="F25" s="7">
         <v>2</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J25" s="7">
+      <c r="I25" s="7">
         <v>30</v>
       </c>
-      <c r="K25">
+      <c r="J25">
         <v>24</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N25" s="3" t="str">
+      <c r="K25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'VAB' =&gt; ['AC-Spannung L1 - L2', VARIABLETYPE_FLOAT, 'SM.Volt.2', 1, 2, 'Vx', 'AC-Spannung', 30, 24, true],</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>86</v>
+      <c r="B26" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E26" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F26" s="4">
+      <c r="E26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="7">
+      <c r="F26" s="7">
         <v>2</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J26" s="7">
+      <c r="I26" s="7">
         <v>30</v>
       </c>
-      <c r="K26">
+      <c r="J26">
         <v>25</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N26" s="3" t="str">
+      <c r="K26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'VBC' =&gt; ['AC-Spannung L2 - L3', VARIABLETYPE_FLOAT, 'SM.Volt.2', 1, 2, 'Vx', 'AC-Spannung', 30, 25, true],</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>87</v>
+      <c r="B27" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E27" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F27" s="4">
+      <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="7">
+      <c r="F27" s="7">
         <v>2</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J27" s="7">
+      <c r="I27" s="7">
         <v>30</v>
       </c>
-      <c r="K27">
+      <c r="J27">
         <v>26</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N27" s="3" t="str">
+      <c r="K27" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'VCA' =&gt; ['AC-Spannung L3 - L1', VARIABLETYPE_FLOAT, 'SM.Volt.2', 1, 2, 'Vx', 'AC-Spannung', 30, 26, true],</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>88</v>
+      <c r="B28" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E28" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F28" s="4">
+      <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="7">
+      <c r="F28" s="7">
         <v>2</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J28" s="7">
+      <c r="I28" s="7">
         <v>30</v>
       </c>
-      <c r="K28">
+      <c r="J28">
         <v>27</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N28" s="3" t="str">
+      <c r="K28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'VPT' =&gt; ['durchschnittliche Phase-Phase-Spannung ', VARIABLETYPE_FLOAT, 'SM.Volt.2', 1, 2, 'Vx', 'AC-Spannung', 30, 27, true],</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B29" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="C29" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E29" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F29" s="4">
+      <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="7">
+      <c r="F29" s="7">
         <v>3</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="J29" s="7">
+      <c r="I29" s="7">
         <v>35</v>
       </c>
-      <c r="K29">
+      <c r="J29">
         <v>28</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N29" s="3" t="str">
+      <c r="K29" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'IA' =&gt; ['AC-Strom L1', VARIABLETYPE_FLOAT, 'SM.Current.3', 1, 3, 'Ix', 'AC-Strom', 35, 28, true],</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B30" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="C30" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E30" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F30" s="4">
+      <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="7">
+      <c r="F30" s="7">
         <v>3</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="J30" s="7">
+      <c r="I30" s="7">
         <v>35</v>
       </c>
-      <c r="K30">
+      <c r="J30">
         <v>29</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N30" s="3" t="str">
+      <c r="K30" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'IB' =&gt; ['AC-Strom L2', VARIABLETYPE_FLOAT, 'SM.Current.3', 1, 3, 'Ix', 'AC-Strom', 35, 29, true],</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B31" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="C31" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E31" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F31" s="4">
+      <c r="E31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="7">
+      <c r="F31" s="7">
         <v>3</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="J31" s="7">
+      <c r="I31" s="7">
         <v>35</v>
       </c>
-      <c r="K31">
+      <c r="J31">
         <v>30</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N31" s="3" t="str">
+      <c r="K31" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'IC' =&gt; ['AC-Strom L3', VARIABLETYPE_FLOAT, 'SM.Current.3', 1, 3, 'Ix', 'AC-Strom', 35, 30, true],</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B32" s="6" t="s">
+        <v>336</v>
+      </c>
       <c r="C32" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F32" s="4">
+      <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="7">
+      <c r="F32" s="7">
         <v>3</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="J32" s="7">
+      <c r="I32" s="7">
         <v>35</v>
       </c>
-      <c r="K32">
+      <c r="J32">
         <v>31</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N32" s="3" t="str">
+      <c r="K32" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'IN' =&gt; ['AC-Strom N', VARIABLETYPE_FLOAT, 'SM.Current.3', 1, 3, 'Ix', 'AC-Strom', 35, 31, true],</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B33" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="C33" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E33" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F33" s="4">
+      <c r="E33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="7">
+      <c r="F33" s="7">
         <v>2</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="J33" s="7">
+      <c r="I33" s="7">
         <v>35</v>
       </c>
-      <c r="K33">
+      <c r="J33">
         <v>32</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N33" s="3" t="str">
+      <c r="K33" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'IN0' =&gt; ['AC-Strom N (Calculated)', VARIABLETYPE_FLOAT, 'SM.Current.3', 1, 2, 'Ix', 'AC-Strom', 35, 32, true],</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>118</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="C34" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>263</v>
       </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
       <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7">
         <v>3</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="J34" s="7">
+      <c r="I34" s="7">
         <v>36</v>
       </c>
-      <c r="K34">
+      <c r="J34">
         <v>33</v>
       </c>
-      <c r="L34" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N34" s="3" t="str">
+      <c r="K34" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'IADC' =&gt; ['Direct Current - Phase A', VARIABLETYPE_FLOAT, 'SM.Current.3', 1, 3, 'IxDC', 'Direct Current', 36, 33, true],</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>119</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="C35" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>263</v>
       </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
       <c r="F35" s="7">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7">
         <v>3</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="J35" s="7">
+      <c r="I35" s="7">
         <v>36</v>
       </c>
-      <c r="K35">
+      <c r="J35">
         <v>34</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N35" s="3" t="str">
+      <c r="K35" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'IBDC' =&gt; ['Direct Current - Phase B', VARIABLETYPE_FLOAT, 'SM.Current.3', 1, 3, 'IxDC', 'Direct Current', 36, 34, true],</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>120</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="C36" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>263</v>
       </c>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
       <c r="F36" s="7">
-        <v>1</v>
-      </c>
-      <c r="G36" s="7">
         <v>3</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="J36" s="7">
+      <c r="I36" s="7">
         <v>36</v>
       </c>
-      <c r="K36">
+      <c r="J36">
         <v>35</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N36" s="3" t="str">
+      <c r="K36" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'ICDC' =&gt; ['Direct Current - Phase C', VARIABLETYPE_FLOAT, 'SM.Current.3', 1, 3, 'IxDC', 'Direct Current', 36, 35, true],</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>45</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B37" s="6" t="s">
+        <v>282</v>
+      </c>
       <c r="C37" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1</v>
       </c>
       <c r="F37" s="7">
-        <v>1</v>
-      </c>
-      <c r="G37" s="7">
         <v>2</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J37" s="7">
+      <c r="I37" s="7">
         <v>50</v>
       </c>
-      <c r="K37">
+      <c r="J37">
         <v>36</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N37" s="3" t="str">
+      <c r="K37" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'PFA' =&gt; ['Leistungsfaktor L1', VARIABLETYPE_FLOAT, '', 1, 2, 'PFx', 'Leistungsfaktor', 50, 36, true],</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>46</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B38" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="C38" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
       </c>
       <c r="F38" s="7">
-        <v>1</v>
-      </c>
-      <c r="G38" s="7">
         <v>2</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J38" s="7">
+      <c r="I38" s="7">
         <v>50</v>
       </c>
-      <c r="K38">
+      <c r="J38">
         <v>37</v>
       </c>
-      <c r="L38" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N38" s="3" t="str">
+      <c r="K38" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'PFB' =&gt; ['Leistungsfaktor L2', VARIABLETYPE_FLOAT, '', 1, 2, 'PFx', 'Leistungsfaktor', 50, 37, true],</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>47</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B39" s="6" t="s">
+        <v>284</v>
+      </c>
       <c r="C39" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
       </c>
       <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="7">
         <v>2</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J39" s="7">
+      <c r="I39" s="7">
         <v>50</v>
       </c>
-      <c r="K39">
+      <c r="J39">
         <v>38</v>
       </c>
-      <c r="L39" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N39" s="3" t="str">
+      <c r="K39" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'PFC' =&gt; ['Leistungsfaktor L3', VARIABLETYPE_FLOAT, '', 1, 2, 'PFx', 'Leistungsfaktor', 50, 38, true],</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>48</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B40" s="6" t="s">
+        <v>468</v>
+      </c>
       <c r="C40" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1</v>
       </c>
       <c r="F40" s="7">
-        <v>1</v>
-      </c>
-      <c r="G40" s="7">
         <v>2</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J40" s="7">
+      <c r="I40" s="7">
         <v>50</v>
       </c>
-      <c r="K40">
+      <c r="J40">
         <v>39</v>
       </c>
-      <c r="L40" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N40" s="3" t="str">
+      <c r="K40" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'PFT' =&gt; ['Leistungsfaktor Total', VARIABLETYPE_FLOAT, '', 1, 2, 'PFx', 'Leistungsfaktor', 50, 39, true],</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>13</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B41" s="6" t="s">
+        <v>304</v>
+      </c>
       <c r="C41" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F41" s="4">
+      <c r="E41" s="4">
         <v>1</v>
       </c>
-      <c r="G41" s="7">
+      <c r="F41" s="7">
         <v>2</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J41" s="7">
+      <c r="I41" s="7">
         <v>55</v>
       </c>
-      <c r="K41">
+      <c r="J41">
         <v>40</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N41" s="3" t="str">
+      <c r="K41" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'IAA' =&gt; ['Phasenwinkel Strom L1', VARIABLETYPE_FLOAT, 'SM.PhaseAngel.2', 1, 2, 'xAx', 'Phasenwinkel', 55, 40, true],</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>14</v>
-      </c>
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B42" s="6" t="s">
+        <v>305</v>
+      </c>
       <c r="C42" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E42" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F42" s="4">
+      <c r="E42" s="4">
         <v>1</v>
       </c>
-      <c r="G42" s="7">
+      <c r="F42" s="7">
         <v>2</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J42" s="7">
+      <c r="I42" s="7">
         <v>55</v>
       </c>
-      <c r="K42">
+      <c r="J42">
         <v>41</v>
       </c>
-      <c r="L42" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N42" s="3" t="str">
+      <c r="K42" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'IAB' =&gt; ['Phasenwinkel Strom L2', VARIABLETYPE_FLOAT, 'SM.PhaseAngel.2', 1, 2, 'xAx', 'Phasenwinkel', 55, 41, true],</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>15</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B43" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="C43" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E43" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F43" s="4">
+      <c r="E43" s="4">
         <v>1</v>
       </c>
-      <c r="G43" s="7">
+      <c r="F43" s="7">
         <v>2</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J43" s="7">
+      <c r="I43" s="7">
         <v>55</v>
       </c>
-      <c r="K43">
+      <c r="J43">
         <v>42</v>
       </c>
-      <c r="L43" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N43" s="3" t="str">
+      <c r="K43" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'IAC' =&gt; ['Phasenwinkel Strom L3', VARIABLETYPE_FLOAT, 'SM.PhaseAngel.2', 1, 2, 'xAx', 'Phasenwinkel', 55, 42, true],</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>16</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B44" s="6" t="s">
+        <v>288</v>
+      </c>
       <c r="C44" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E44" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F44" s="4">
+      <c r="E44" s="4">
         <v>1</v>
       </c>
-      <c r="G44" s="7">
+      <c r="F44" s="7">
         <v>2</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J44" s="7">
+      <c r="I44" s="7">
         <v>55</v>
       </c>
-      <c r="K44">
+      <c r="J44">
         <v>43</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N44" s="3" t="str">
+      <c r="K44" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'UAA' =&gt; ['Phasenwinkel Spannung L1-L3', VARIABLETYPE_FLOAT, 'SM.PhaseAngel.2', 1, 2, 'xAx', 'Phasenwinkel', 55, 43, true],</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>17</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B45" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="C45" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E45" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F45" s="4">
+      <c r="E45" s="4">
         <v>1</v>
       </c>
-      <c r="G45" s="7">
+      <c r="F45" s="7">
         <v>2</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J45" s="7">
+      <c r="I45" s="7">
         <v>55</v>
       </c>
-      <c r="K45">
+      <c r="J45">
         <v>44</v>
       </c>
-      <c r="L45" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N45" s="3" t="str">
+      <c r="K45" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'UAB' =&gt; ['Phasenwinkel Spannung L2-L3', VARIABLETYPE_FLOAT, 'SM.PhaseAngel.2', 1, 2, 'xAx', 'Phasenwinkel', 55, 44, true],</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>18</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B46" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="C46" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E46" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F46" s="4">
+      <c r="E46" s="4">
         <v>1</v>
       </c>
-      <c r="G46" s="7">
+      <c r="F46" s="7">
         <v>2</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J46" s="7">
+      <c r="I46" s="7">
         <v>55</v>
       </c>
-      <c r="K46">
+      <c r="J46">
         <v>45</v>
       </c>
-      <c r="L46" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N46" s="3" t="str">
+      <c r="K46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'UAC' =&gt; ['Phasenwinkel Spannung L3-L3', VARIABLETYPE_FLOAT, 'SM.PhaseAngel.2', 1, 2, 'xAx', 'Phasenwinkel', 55, 45, true],</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>37</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B47" s="6" t="s">
+        <v>541</v>
+      </c>
       <c r="C47" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E47" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F47" s="4">
+      <c r="E47" s="4">
         <v>1</v>
       </c>
-      <c r="G47" s="7">
+      <c r="F47" s="7">
         <v>2</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="J47" s="7">
+      <c r="I47" s="7">
         <v>60</v>
       </c>
-      <c r="K47">
+      <c r="J47">
         <v>46</v>
       </c>
-      <c r="L47" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N47" s="3" t="str">
+      <c r="K47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'QA' =&gt; ['Reactive Power - Phase A', VARIABLETYPE_FLOAT, 'SM.Var.2', 1, 2, 'RPx', 'Blindleistung', 60, 46, true],</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>38</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B48" s="6" t="s">
+        <v>544</v>
+      </c>
       <c r="C48" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E48" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F48" s="4">
+      <c r="E48" s="4">
         <v>1</v>
       </c>
-      <c r="G48" s="7">
+      <c r="F48" s="7">
         <v>2</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="J48" s="7">
+      <c r="I48" s="7">
         <v>60</v>
       </c>
-      <c r="K48">
+      <c r="J48">
         <v>47</v>
       </c>
-      <c r="L48" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N48" s="3" t="str">
+      <c r="K48" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'QB' =&gt; ['Reactive Power - Phase B', VARIABLETYPE_FLOAT, 'SM.Var.2', 1, 2, 'RPx', 'Blindleistung', 60, 47, true],</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>39</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B49" s="6" t="s">
+        <v>543</v>
+      </c>
       <c r="C49" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E49" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F49" s="4">
+      <c r="E49" s="4">
         <v>1</v>
       </c>
-      <c r="G49" s="7">
+      <c r="F49" s="7">
         <v>2</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="J49" s="7">
+      <c r="I49" s="7">
         <v>60</v>
       </c>
-      <c r="K49">
+      <c r="J49">
         <v>48</v>
       </c>
-      <c r="L49" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N49" s="3" t="str">
+      <c r="K49" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'QC' =&gt; ['Reactive Power - Phase C', VARIABLETYPE_FLOAT, 'SM.Var.2', 1, 2, 'RPx', 'Blindleistung', 60, 48, true],</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>40</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B50" s="6" t="s">
+        <v>542</v>
+      </c>
       <c r="C50" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E50" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F50" s="4">
+      <c r="E50" s="4">
         <v>1</v>
       </c>
-      <c r="G50" s="7">
+      <c r="F50" s="7">
         <v>2</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="J50" s="7">
+      <c r="I50" s="7">
         <v>60</v>
       </c>
-      <c r="K50">
+      <c r="J50">
         <v>49</v>
       </c>
-      <c r="L50" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N50" s="3" t="str">
+      <c r="K50" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'QT' =&gt; ['Reactive Power - Total', VARIABLETYPE_FLOAT, 'SM.Var.2', 1, 2, 'RPx', 'Blindleistung', 60, 49, true],</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>61</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="B51" s="6" t="s">
+        <v>545</v>
+      </c>
       <c r="C51" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F51" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G51" s="7">
+      <c r="F51" s="7">
         <v>3</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J51" s="7">
+      <c r="I51" s="7">
         <v>65</v>
       </c>
-      <c r="K51">
+      <c r="J51">
         <v>50</v>
       </c>
-      <c r="L51" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N51" s="3" t="str">
+      <c r="K51" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'EFRA' =&gt; ['Forward Reactive Energy - Phase A', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'REx', 'Blindenergie', 65, 50, true],</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>62</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B52" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="C52" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F52" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G52" s="7">
+      <c r="F52" s="7">
         <v>3</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J52" s="7">
+      <c r="I52" s="7">
         <v>65</v>
       </c>
-      <c r="K52">
+      <c r="J52">
         <v>51</v>
       </c>
-      <c r="L52" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N52" s="3" t="str">
+      <c r="K52" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'EFRB' =&gt; ['Forward Reactive Energy - Phase B', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'REx', 'Blindenergie', 65, 51, true],</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>63</v>
-      </c>
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="B53" s="6" t="s">
+        <v>547</v>
+      </c>
       <c r="C53" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F53" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G53" s="7">
+      <c r="F53" s="7">
         <v>3</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J53" s="7">
+      <c r="I53" s="7">
         <v>65</v>
       </c>
-      <c r="K53">
+      <c r="J53">
         <v>52</v>
       </c>
-      <c r="L53" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N53" s="3" t="str">
+      <c r="K53" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'EFRC' =&gt; ['Forward Reactive Energy - Phase C', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'REx', 'Blindenergie', 65, 52, true],</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>64</v>
-      </c>
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="B54" s="6" t="s">
+        <v>546</v>
+      </c>
       <c r="C54" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F54" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G54" s="7">
+      <c r="F54" s="7">
         <v>3</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J54" s="7">
+      <c r="I54" s="7">
         <v>65</v>
       </c>
-      <c r="K54">
+      <c r="J54">
         <v>53</v>
       </c>
-      <c r="L54" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N54" s="3" t="str">
+      <c r="K54" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'EFRT' =&gt; ['Forward Reactive Energy - Total', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'REx', 'Blindenergie', 65, 53, true],</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>77</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="B55" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="C55" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F55" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G55" s="7">
+      <c r="F55" s="7">
         <v>3</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J55" s="7">
+      <c r="I55" s="7">
         <v>65</v>
       </c>
-      <c r="K55">
+      <c r="J55">
         <v>54</v>
       </c>
-      <c r="L55" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N55" s="3" t="str">
+      <c r="K55" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'ERRA' =&gt; ['Reverse Reactive Energy - Phase A', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'REx', 'Blindenergie', 65, 54, true],</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>78</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="B56" s="6" t="s">
+        <v>270</v>
+      </c>
       <c r="C56" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F56" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G56" s="7">
+      <c r="F56" s="7">
         <v>3</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J56" s="7">
+      <c r="I56" s="7">
         <v>65</v>
       </c>
-      <c r="K56">
+      <c r="J56">
         <v>55</v>
       </c>
-      <c r="L56" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N56" s="3" t="str">
+      <c r="K56" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M56" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'ERRB' =&gt; ['Reverse Reactive Energy - Phase B', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'REx', 'Blindenergie', 65, 55, true],</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>79</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="B57" s="6" t="s">
+        <v>271</v>
+      </c>
       <c r="C57" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F57" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G57" s="7">
+      <c r="F57" s="7">
         <v>3</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J57" s="7">
+      <c r="I57" s="7">
         <v>65</v>
       </c>
-      <c r="K57">
+      <c r="J57">
         <v>56</v>
       </c>
-      <c r="L57" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N57" s="3" t="str">
+      <c r="K57" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'ERRC' =&gt; ['Reverse Reactive Energy - Phase C', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'REx', 'Blindenergie', 65, 56, true],</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>80</v>
-      </c>
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="B58" s="6" t="s">
+        <v>272</v>
+      </c>
       <c r="C58" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F58" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G58" s="7">
+      <c r="F58" s="7">
         <v>3</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J58" s="7">
+      <c r="I58" s="7">
         <v>65</v>
       </c>
-      <c r="K58">
+      <c r="J58">
         <v>57</v>
       </c>
-      <c r="L58" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N58" s="3" t="str">
+      <c r="K58" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M58" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'ERRT' =&gt; ['Reverse Reactive Energy - Total', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'REx', 'Blindenergie', 65, 57, true],</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>102</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>298</v>
+      <c r="C59" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F59" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="7">
+      <c r="F59" s="7">
         <v>3</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J59" s="7">
+      <c r="I59" s="7">
         <v>66</v>
       </c>
-      <c r="K59">
+      <c r="J59">
         <v>58</v>
       </c>
-      <c r="L59" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N59" s="3" t="str">
+      <c r="K59" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M59" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'ERT1' =&gt; ['Reactive Energy Quadrant 1 - Total', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 58, true],</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>103</v>
-      </c>
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>298</v>
+      <c r="C60" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F60" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G60" s="7">
+      <c r="F60" s="7">
         <v>3</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J60" s="7">
+      <c r="I60" s="7">
         <v>66</v>
       </c>
-      <c r="K60">
+      <c r="J60">
         <v>59</v>
       </c>
-      <c r="L60" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N60" s="3" t="str">
+      <c r="K60" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M60" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'ERT2' =&gt; ['Reactive Energy Quadrant 2 - Total', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 59, true],</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>104</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>298</v>
+      <c r="C61" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F61" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G61" s="7">
+      <c r="F61" s="7">
         <v>3</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J61" s="7">
+      <c r="I61" s="7">
         <v>66</v>
       </c>
-      <c r="K61">
+      <c r="J61">
         <v>60</v>
       </c>
-      <c r="L61" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N61" s="3" t="str">
+      <c r="K61" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M61" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'ERT3' =&gt; ['Reactive Energy Quadrant 3 - Total', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 60, true],</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>105</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>298</v>
+      <c r="C62" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F62" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G62" s="7">
+      <c r="F62" s="7">
         <v>3</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J62" s="7">
+      <c r="I62" s="7">
         <v>66</v>
       </c>
-      <c r="K62">
+      <c r="J62">
         <v>61</v>
       </c>
-      <c r="L62" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N62" s="3" t="str">
+      <c r="K62" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M62" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'ERT4' =&gt; ['Reactive Energy Quadrant 4 - Total', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 61, true],</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>106</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>298</v>
+      <c r="C63" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F63" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G63" s="7">
+      <c r="F63" s="7">
         <v>3</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J63" s="7">
+      <c r="I63" s="7">
         <v>66</v>
       </c>
-      <c r="K63">
+      <c r="J63">
         <v>62</v>
       </c>
-      <c r="L63" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N63" s="3" t="str">
+      <c r="K63" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M63" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'ERA1' =&gt; ['Reactive Energy Quadrant 1 - Phase A', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 62, true],</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>107</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>298</v>
+      <c r="C64" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F64" s="7">
+        <v>3</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="I64" s="7">
+        <v>66</v>
+      </c>
+      <c r="J64">
+        <v>63</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M64" s="3" t="str">
+        <f t="shared" ref="M64:M119" si="1">"'"&amp;A64&amp;"' =&gt; ['"&amp;B64&amp;"', " &amp;C64&amp;", '"&amp;D64&amp;"', "&amp;E64 &amp;", " &amp;F64&amp;", '"&amp;G64&amp;"', '"&amp;H64&amp;"', " &amp; I64 &amp; ", " &amp;J64&amp;", "&amp;K64&amp;"],"</f>
+        <v>'ERA2' =&gt; ['Reactive Energy Quadrant 2 - Phase A', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 63, true],</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G64" s="7">
+      <c r="F65" s="7">
         <v>3</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J64" s="7">
+      <c r="I65" s="7">
         <v>66</v>
       </c>
-      <c r="K64">
-        <v>63</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N64" s="3" t="str">
-        <f t="shared" ref="N64:N119" si="1">"'"&amp;B64&amp;"' =&gt; ['"&amp;C64&amp;"', " &amp;D64&amp;", '"&amp;E64&amp;"', "&amp;F64 &amp;", " &amp;G64&amp;", '"&amp;H64&amp;"', '"&amp;I64&amp;"', " &amp; J64 &amp; ", " &amp;K64&amp;", "&amp;L64&amp;"],"</f>
-        <v>'ERA2' =&gt; ['Reactive Energy Quadrant 2 - Phase A', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 63, true],</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>108</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G65" s="7">
-        <v>3</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="J65" s="7">
-        <v>66</v>
-      </c>
-      <c r="K65">
+      <c r="J65">
         <v>64</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N65" s="3" t="str">
+      <c r="K65" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERA3' =&gt; ['Reactive Energy Quadrant 3 - Phase A', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 64, true],</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>109</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>298</v>
+      <c r="C66" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F66" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G66" s="7">
+      <c r="F66" s="7">
         <v>3</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J66" s="7">
+      <c r="I66" s="7">
         <v>66</v>
       </c>
-      <c r="K66">
+      <c r="J66">
         <v>65</v>
       </c>
-      <c r="L66" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N66" s="3" t="str">
+      <c r="K66" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERA4' =&gt; ['Reactive Energy Quadrant 4 - Phase A', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 65, true],</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>110</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>298</v>
+      <c r="C67" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F67" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G67" s="7">
+      <c r="F67" s="7">
         <v>3</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J67" s="7">
+      <c r="I67" s="7">
         <v>66</v>
       </c>
-      <c r="K67">
+      <c r="J67">
         <v>66</v>
       </c>
-      <c r="L67" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N67" s="3" t="str">
+      <c r="K67" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERB1' =&gt; ['Reactive Energy Quadrant 1 - Phase B', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 66, true],</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>111</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>298</v>
+      <c r="C68" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F68" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G68" s="7">
+      <c r="F68" s="7">
         <v>3</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J68" s="7">
+      <c r="I68" s="7">
         <v>66</v>
       </c>
-      <c r="K68">
+      <c r="J68">
         <v>67</v>
       </c>
-      <c r="L68" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N68" s="3" t="str">
+      <c r="K68" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERB2' =&gt; ['Reactive Energy Quadrant 2 - Phase B', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 67, true],</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>112</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>298</v>
+      <c r="C69" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F69" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G69" s="7">
+      <c r="F69" s="7">
         <v>3</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J69" s="7">
+      <c r="I69" s="7">
         <v>66</v>
       </c>
-      <c r="K69">
+      <c r="J69">
         <v>68</v>
       </c>
-      <c r="L69" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N69" s="3" t="str">
+      <c r="K69" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERB3' =&gt; ['Reactive Energy Quadrant 3 - Phase B', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 68, true],</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>113</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>298</v>
+      <c r="C70" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F70" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G70" s="7">
+      <c r="F70" s="7">
         <v>3</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J70" s="7">
+      <c r="I70" s="7">
         <v>66</v>
       </c>
-      <c r="K70">
+      <c r="J70">
         <v>69</v>
       </c>
-      <c r="L70" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N70" s="3" t="str">
+      <c r="K70" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERB4' =&gt; ['Reactive Energy Quadrant 4 - Phase B', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 69, true],</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>114</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>298</v>
+      <c r="C71" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F71" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G71" s="7">
+      <c r="F71" s="7">
         <v>3</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J71" s="7">
+      <c r="I71" s="7">
         <v>66</v>
       </c>
-      <c r="K71">
+      <c r="J71">
         <v>70</v>
       </c>
-      <c r="L71" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N71" s="3" t="str">
+      <c r="K71" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M71" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERC1' =&gt; ['Reactive Energy Quadrant 1 - Phase C', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 70, true],</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>115</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>298</v>
+      <c r="C72" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F72" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G72" s="7">
+      <c r="F72" s="7">
         <v>3</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J72" s="7">
+      <c r="I72" s="7">
         <v>66</v>
       </c>
-      <c r="K72">
+      <c r="J72">
         <v>71</v>
       </c>
-      <c r="L72" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N72" s="3" t="str">
+      <c r="K72" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M72" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERC2' =&gt; ['Reactive Energy Quadrant 2 - Phase C', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 71, true],</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>116</v>
-      </c>
-      <c r="B73" s="1" t="s">
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>298</v>
+      <c r="C73" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F73" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G73" s="7">
+      <c r="F73" s="7">
         <v>3</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J73" s="7">
+      <c r="I73" s="7">
         <v>66</v>
       </c>
-      <c r="K73">
+      <c r="J73">
         <v>72</v>
       </c>
-      <c r="L73" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N73" s="3" t="str">
+      <c r="K73" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M73" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERC3' =&gt; ['Reactive Energy Quadrant 3 - Phase C', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 72, true],</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>117</v>
-      </c>
-      <c r="B74" s="1" t="s">
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>298</v>
+      <c r="C74" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F74" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G74" s="7">
+      <c r="F74" s="7">
         <v>3</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="J74" s="7">
+      <c r="I74" s="7">
         <v>66</v>
       </c>
-      <c r="K74">
+      <c r="J74">
         <v>73</v>
       </c>
-      <c r="L74" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N74" s="3" t="str">
+      <c r="K74" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M74" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERC4' =&gt; ['Reactive Energy Quadrant 4 - Phase C', VARIABLETYPE_FLOAT, 'SM.kvarh.3', 0.001, 3, 'RE1_4', 'Blindenergie Quadrant 1 - 4', 66, 73, true],</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>41</v>
-      </c>
-      <c r="B75" s="1" t="s">
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B75" s="6" t="s">
+        <v>531</v>
+      </c>
       <c r="C75" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E75" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F75" s="4">
+      <c r="E75" s="4">
         <v>1</v>
       </c>
-      <c r="G75" s="7">
+      <c r="F75" s="7">
         <v>2</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="J75" s="7">
+      <c r="I75" s="7">
         <v>70</v>
       </c>
-      <c r="K75">
+      <c r="J75">
         <v>74</v>
       </c>
-      <c r="L75" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N75" s="3" t="str">
+      <c r="K75" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M75" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'SA' =&gt; ['Apparent Power - Phase A', VARIABLETYPE_FLOAT, 'SM.VA.2', 1, 2, 'APx', 'Scheinleistung', 70, 74, true],</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>42</v>
-      </c>
-      <c r="B76" s="1" t="s">
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="B76" s="6" t="s">
+        <v>532</v>
+      </c>
       <c r="C76" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E76" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F76" s="4">
+      <c r="E76" s="4">
         <v>1</v>
       </c>
-      <c r="G76" s="7">
+      <c r="F76" s="7">
         <v>2</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="J76" s="7">
+      <c r="I76" s="7">
         <v>70</v>
       </c>
-      <c r="K76">
+      <c r="J76">
         <v>75</v>
       </c>
-      <c r="L76" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N76" s="3" t="str">
+      <c r="K76" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M76" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'SB' =&gt; ['Apparent Power - Phase B', VARIABLETYPE_FLOAT, 'SM.VA.2', 1, 2, 'APx', 'Scheinleistung', 70, 75, true],</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>43</v>
-      </c>
-      <c r="B77" s="1" t="s">
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B77" s="6" t="s">
+        <v>533</v>
+      </c>
       <c r="C77" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E77" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F77" s="4">
+      <c r="E77" s="4">
         <v>1</v>
       </c>
-      <c r="G77" s="7">
+      <c r="F77" s="7">
         <v>2</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="J77" s="7">
+      <c r="I77" s="7">
         <v>70</v>
       </c>
-      <c r="K77">
+      <c r="J77">
         <v>76</v>
       </c>
-      <c r="L77" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N77" s="3" t="str">
+      <c r="K77" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M77" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'SC' =&gt; ['Apparent Power - Phase C', VARIABLETYPE_FLOAT, 'SM.VA.2', 1, 2, 'APx', 'Scheinleistung', 70, 76, true],</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>44</v>
-      </c>
-      <c r="B78" s="1" t="s">
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B78" s="6" t="s">
+        <v>534</v>
+      </c>
       <c r="C78" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E78" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F78" s="4">
+      <c r="E78" s="4">
         <v>1</v>
       </c>
-      <c r="G78" s="7">
+      <c r="F78" s="7">
         <v>2</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="G78" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="J78" s="7">
+      <c r="I78" s="7">
         <v>70</v>
       </c>
-      <c r="K78">
+      <c r="J78">
         <v>77</v>
       </c>
-      <c r="L78" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N78" s="3" t="str">
+      <c r="K78" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M78" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ST' =&gt; ['Apparent Power - Total', VARIABLETYPE_FLOAT, 'SM.VA.2', 1, 2, 'APx', 'Scheinleistung', 70, 77, true],</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>93</v>
-      </c>
-      <c r="B79" s="1" t="s">
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="B79" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="C79" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>267</v>
       </c>
+      <c r="E79" s="7">
+        <v>1</v>
+      </c>
       <c r="F79" s="7">
-        <v>1</v>
-      </c>
-      <c r="G79" s="7">
         <v>2</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="J79" s="7">
+      <c r="I79" s="7">
         <v>70</v>
       </c>
-      <c r="K79">
+      <c r="J79">
         <v>78</v>
       </c>
-      <c r="L79" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N79" s="3" t="str">
+      <c r="K79" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M79" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EMT' =&gt; ['Apparent Power - Total (Vector Sum)', VARIABLETYPE_FLOAT, 'SM.VA.2', 1, 2, 'APx', 'Scheinleistung', 70, 78, true],</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>81</v>
-      </c>
-      <c r="B80" s="1" t="s">
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="B80" s="6" t="s">
+        <v>504</v>
+      </c>
       <c r="C80" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F80" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G80" s="7">
+      <c r="F80" s="7">
         <v>3</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J80" s="7">
+      <c r="I80" s="7">
         <v>75</v>
       </c>
-      <c r="K80">
+      <c r="J80">
         <v>79</v>
       </c>
-      <c r="L80" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N80" s="3" t="str">
+      <c r="K80" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M80" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ESA' =&gt; ['Apparent Energy - Phase A', VARIABLETYPE_FLOAT, 'SM.kVAh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 79, true],</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>82</v>
-      </c>
-      <c r="B81" s="1" t="s">
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="B81" s="6" t="s">
+        <v>503</v>
+      </c>
       <c r="C81" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F81" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G81" s="7">
+      <c r="F81" s="7">
         <v>3</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J81" s="7">
+      <c r="I81" s="7">
         <v>75</v>
       </c>
-      <c r="K81">
+      <c r="J81">
         <v>80</v>
       </c>
-      <c r="L81" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N81" s="3" t="str">
+      <c r="K81" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M81" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ESB' =&gt; ['Apparent Energy - Phase B', VARIABLETYPE_FLOAT, 'SM.kVAh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 80, true],</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>83</v>
-      </c>
-      <c r="B82" s="1" t="s">
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="B82" s="6" t="s">
+        <v>502</v>
+      </c>
       <c r="C82" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F82" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G82" s="7">
+      <c r="F82" s="7">
         <v>3</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="G82" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J82" s="7">
+      <c r="I82" s="7">
         <v>75</v>
       </c>
-      <c r="K82">
+      <c r="J82">
         <v>81</v>
       </c>
-      <c r="L82" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N82" s="3" t="str">
+      <c r="K82" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M82" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ESC' =&gt; ['Apparent Energy - Phase C', VARIABLETYPE_FLOAT, 'SM.kVAh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 81, true],</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>84</v>
-      </c>
-      <c r="B83" s="1" t="s">
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="B83" s="6" t="s">
+        <v>501</v>
+      </c>
       <c r="C83" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F83" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G83" s="7">
+      <c r="F83" s="7">
         <v>3</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J83" s="7">
+      <c r="I83" s="7">
         <v>75</v>
       </c>
-      <c r="K83">
+      <c r="J83">
         <v>82</v>
       </c>
-      <c r="L83" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N83" s="3" t="str">
+      <c r="K83" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M83" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EST' =&gt; ['Apparent Energy - Total', VARIABLETYPE_FLOAT, 'SM.kVAh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 82, true],</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>92</v>
-      </c>
-      <c r="B84" s="1" t="s">
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E84" s="4" t="s">
+      <c r="C84" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="E84" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G84" s="7">
+      <c r="F84" s="7">
         <v>3</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J84" s="7">
+      <c r="I84" s="7">
         <v>75</v>
       </c>
-      <c r="K84">
+      <c r="J84">
         <v>83</v>
       </c>
-      <c r="L84" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N84" s="3" t="str">
+      <c r="K84" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M84" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EVT' =&gt; ['Apparent Energy - Total (Vector Sum)', VARIABLETYPE_FLOAT, 'SM.kVAh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 83, true],</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>94</v>
-      </c>
-      <c r="B85" s="1" t="s">
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E85" s="4" t="s">
+      <c r="C85" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="E85" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G85" s="7">
+      <c r="F85" s="7">
         <v>3</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J85" s="7">
+      <c r="I85" s="7">
         <v>75</v>
       </c>
-      <c r="K85">
+      <c r="J85">
         <v>84</v>
       </c>
-      <c r="L85" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N85" s="3" t="str">
+      <c r="K85" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M85" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERSA' =&gt; ['Apparent Reverse Energy - Phase A', VARIABLETYPE_FLOAT, 'SM.kVAh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 84, true],</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>95</v>
-      </c>
-      <c r="B86" s="1" t="s">
+    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E86" s="4" t="s">
+      <c r="C86" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="E86" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G86" s="7">
+      <c r="F86" s="7">
         <v>3</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="G86" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J86" s="7">
+      <c r="I86" s="7">
         <v>75</v>
       </c>
-      <c r="K86">
+      <c r="J86">
         <v>85</v>
       </c>
-      <c r="L86" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N86" s="3" t="str">
+      <c r="K86" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M86" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERSB' =&gt; ['Apparent Reverse Energy - Phase B', VARIABLETYPE_FLOAT, 'SM.kVAh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 85, true],</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>96</v>
-      </c>
-      <c r="B87" s="1" t="s">
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E87" s="4" t="s">
+      <c r="C87" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="E87" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G87" s="7">
+      <c r="F87" s="7">
         <v>3</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J87" s="7">
+      <c r="I87" s="7">
         <v>75</v>
       </c>
-      <c r="K87">
+      <c r="J87">
         <v>86</v>
       </c>
-      <c r="L87" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N87" s="3" t="str">
+      <c r="K87" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M87" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERSC' =&gt; ['Apparent Reverse Energy - Phase C', VARIABLETYPE_FLOAT, 'SM.kVAh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 86, true],</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>97</v>
-      </c>
-      <c r="B88" s="1" t="s">
+    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E88" s="4" t="s">
+      <c r="C88" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G88" s="7">
+      <c r="F88" s="7">
         <v>3</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J88" s="7">
+      <c r="I88" s="7">
         <v>75</v>
       </c>
-      <c r="K88">
+      <c r="J88">
         <v>87</v>
       </c>
-      <c r="L88" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N88" s="3" t="str">
+      <c r="K88" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M88" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERST' =&gt; ['Apparent Reverse Energy - Total', VARIABLETYPE_FLOAT, 'SM.kVAh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 87, true],</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>98</v>
-      </c>
-      <c r="B89" s="1" t="s">
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E89" s="4" t="s">
+      <c r="C89" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G89" s="7">
+      <c r="F89" s="7">
         <v>3</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="H89" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J89" s="7">
+      <c r="I89" s="7">
         <v>75</v>
       </c>
-      <c r="K89">
+      <c r="J89">
         <v>88</v>
       </c>
-      <c r="L89" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N89" s="3" t="str">
+      <c r="K89" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M89" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EFSA' =&gt; ['Apparent Forward Energy - Phase A', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 88, true],</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>99</v>
-      </c>
-      <c r="B90" s="1" t="s">
+    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E90" s="4" t="s">
+      <c r="C90" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="E90" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G90" s="7">
+      <c r="F90" s="7">
         <v>3</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="G90" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="H90" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J90" s="7">
+      <c r="I90" s="7">
         <v>75</v>
       </c>
-      <c r="K90">
+      <c r="J90">
         <v>89</v>
       </c>
-      <c r="L90" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N90" s="3" t="str">
+      <c r="K90" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M90" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EFSB' =&gt; ['Apparent Forward Energy - Phase B', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 89, true],</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>100</v>
-      </c>
-      <c r="B91" s="1" t="s">
+    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E91" s="4" t="s">
+      <c r="C91" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="E91" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G91" s="7">
+      <c r="F91" s="7">
         <v>3</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J91" s="7">
+      <c r="I91" s="7">
         <v>75</v>
       </c>
-      <c r="K91">
+      <c r="J91">
         <v>90</v>
       </c>
-      <c r="L91" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N91" s="3" t="str">
+      <c r="K91" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M91" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EFSC' =&gt; ['Apparent Forward Energy - Phase C', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 90, true],</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>101</v>
-      </c>
-      <c r="B92" s="1" t="s">
+    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="B92" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E92" s="4" t="s">
+      <c r="C92" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="E92" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G92" s="7">
+      <c r="F92" s="7">
         <v>3</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="H92" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J92" s="7">
+      <c r="I92" s="7">
         <v>75</v>
       </c>
-      <c r="K92">
+      <c r="J92">
         <v>91</v>
       </c>
-      <c r="L92" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N92" s="3" t="str">
+      <c r="K92" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M92" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EFST' =&gt; ['Apparent Forward Energy - Total', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'AEx', 'Scheinenergie', 75, 91, true],</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>19</v>
-      </c>
-      <c r="B93" s="1" t="s">
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E93" s="4" t="s">
+      <c r="C93" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F93" s="4">
+      <c r="E93" s="4">
         <v>1</v>
       </c>
-      <c r="G93" s="7">
+      <c r="F93" s="7">
         <v>2</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="G93" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="J93" s="7">
+      <c r="I93" s="7">
         <v>80</v>
       </c>
-      <c r="K93">
+      <c r="J93">
         <v>92</v>
       </c>
-      <c r="L93" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N93" s="3" t="str">
+      <c r="K93" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M93" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'THUA' =&gt; ['Phase A voltage THD+N ', VARIABLETYPE_FLOAT, 'Percent.2', 1, 2, 'THD', 'THD+N', 80, 92, true],</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>20</v>
-      </c>
-      <c r="B94" s="1" t="s">
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E94" s="4" t="s">
+      <c r="C94" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F94" s="4">
+      <c r="E94" s="4">
         <v>1</v>
       </c>
-      <c r="G94" s="7">
+      <c r="F94" s="7">
         <v>2</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="J94" s="7">
+      <c r="I94" s="7">
         <v>80</v>
       </c>
-      <c r="K94">
+      <c r="J94">
         <v>93</v>
       </c>
-      <c r="L94" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N94" s="3" t="str">
+      <c r="K94" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M94" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'THUB' =&gt; ['Phase B voltage THD+N ', VARIABLETYPE_FLOAT, 'Percent.2', 1, 2, 'THD', 'THD+N', 80, 93, true],</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>21</v>
-      </c>
-      <c r="B95" s="1" t="s">
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E95" s="4" t="s">
+      <c r="C95" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F95" s="4">
+      <c r="E95" s="4">
         <v>1</v>
       </c>
-      <c r="G95" s="7">
+      <c r="F95" s="7">
         <v>2</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="G95" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="H95" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="J95" s="7">
+      <c r="I95" s="7">
         <v>80</v>
       </c>
-      <c r="K95">
+      <c r="J95">
         <v>94</v>
       </c>
-      <c r="L95" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N95" s="3" t="str">
+      <c r="K95" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M95" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'THUC' =&gt; ['Phase C voltage THD+N ', VARIABLETYPE_FLOAT, 'Percent.2', 1, 2, 'THD', 'THD+N', 80, 94, true],</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>22</v>
-      </c>
-      <c r="B96" s="1" t="s">
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="B96" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E96" s="4" t="s">
+      <c r="C96" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F96" s="4">
+      <c r="E96" s="4">
         <v>1</v>
       </c>
-      <c r="G96" s="7">
+      <c r="F96" s="7">
         <v>2</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="H96" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="J96" s="7">
+      <c r="I96" s="7">
         <v>80</v>
       </c>
-      <c r="K96">
+      <c r="J96">
         <v>95</v>
       </c>
-      <c r="L96" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N96" s="3" t="str">
+      <c r="K96" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M96" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'THIA' =&gt; ['Phase A current THD+N ', VARIABLETYPE_FLOAT, 'Percent.2', 1, 2, 'THD', 'THD+N', 80, 95, true],</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>23</v>
-      </c>
-      <c r="B97" s="1" t="s">
+    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E97" s="4" t="s">
+      <c r="C97" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F97" s="4">
+      <c r="E97" s="4">
         <v>1</v>
       </c>
-      <c r="G97" s="7">
+      <c r="F97" s="7">
         <v>2</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="G97" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="J97" s="7">
+      <c r="I97" s="7">
         <v>80</v>
       </c>
-      <c r="K97">
+      <c r="J97">
         <v>96</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N97" s="3" t="str">
+      <c r="K97" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M97" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'THIB' =&gt; ['Phase B current THD+N ', VARIABLETYPE_FLOAT, 'Percent.2', 1, 2, 'THD', 'THD+N', 80, 96, true],</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>24</v>
-      </c>
-      <c r="B98" s="1" t="s">
+    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="B98" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E98" s="4" t="s">
+      <c r="C98" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F98" s="4">
+      <c r="E98" s="4">
         <v>1</v>
       </c>
-      <c r="G98" s="7">
+      <c r="F98" s="7">
         <v>2</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="G98" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="H98" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="J98" s="7">
+      <c r="I98" s="7">
         <v>80</v>
       </c>
-      <c r="K98">
+      <c r="J98">
         <v>97</v>
       </c>
-      <c r="L98" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N98" s="3" t="str">
+      <c r="K98" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M98" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'THIC' =&gt; ['Phase C current THD+N ', VARIABLETYPE_FLOAT, 'Percent.2', 1, 2, 'THD', 'THD+N', 80, 97, true],</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>29</v>
-      </c>
-      <c r="B99" s="1" t="s">
+    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E99" s="4" t="s">
+      <c r="C99" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F99" s="4">
+      <c r="E99" s="4">
         <v>1</v>
       </c>
-      <c r="G99" s="7">
+      <c r="F99" s="7">
         <v>2</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="H99" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="J99" s="7">
+      <c r="I99" s="7">
         <v>90</v>
       </c>
-      <c r="K99">
+      <c r="J99">
         <v>98</v>
       </c>
-      <c r="L99" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N99" s="3" t="str">
+      <c r="K99" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M99" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'PAF' =&gt; ['Active Fundamental Power - Phase A', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'FPx', 'Fundamental Power', 90, 98, true],</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>30</v>
-      </c>
-      <c r="B100" s="1" t="s">
+    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="B100" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E100" s="4" t="s">
+      <c r="C100" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F100" s="4">
+      <c r="E100" s="4">
         <v>1</v>
       </c>
-      <c r="G100" s="7">
+      <c r="F100" s="7">
         <v>2</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="J100" s="7">
+      <c r="I100" s="7">
         <v>90</v>
       </c>
-      <c r="K100">
+      <c r="J100">
         <v>99</v>
       </c>
-      <c r="L100" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N100" s="3" t="str">
+      <c r="K100" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M100" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'PBF' =&gt; ['Active Fundamental Power - Phase B', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'FPx', 'Fundamental Power', 90, 99, true],</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>31</v>
-      </c>
-      <c r="B101" s="1" t="s">
+    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E101" s="4" t="s">
+      <c r="C101" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F101" s="4">
+      <c r="E101" s="4">
         <v>1</v>
       </c>
-      <c r="G101" s="7">
+      <c r="F101" s="7">
         <v>2</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="G101" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="J101" s="7">
+      <c r="I101" s="7">
         <v>90</v>
       </c>
-      <c r="K101">
+      <c r="J101">
         <v>100</v>
       </c>
-      <c r="L101" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N101" s="3" t="str">
+      <c r="K101" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M101" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'PCF' =&gt; ['Active Fundamental Power - Phase C', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'FPx', 'Fundamental Power', 90, 100, true],</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>32</v>
-      </c>
-      <c r="B102" s="1" t="s">
+    <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E102" s="4" t="s">
+      <c r="C102" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F102" s="4">
+      <c r="E102" s="4">
         <v>1</v>
       </c>
-      <c r="G102" s="7">
+      <c r="F102" s="7">
         <v>2</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="H102" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="J102" s="7">
+      <c r="I102" s="7">
         <v>90</v>
       </c>
-      <c r="K102">
+      <c r="J102">
         <v>101</v>
       </c>
-      <c r="L102" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N102" s="3" t="str">
+      <c r="K102" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M102" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'PTF' =&gt; ['Active Fundamental Power - Total', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'FPx', 'Fundamental Power', 90, 101, true],</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>53</v>
-      </c>
-      <c r="B103" s="1" t="s">
+    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="B103" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>298</v>
+      <c r="C103" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F103" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G103" s="7">
+      <c r="F103" s="7">
         <v>3</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="G103" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="H103" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="J103" s="7">
+      <c r="I103" s="7">
         <v>91</v>
       </c>
-      <c r="K103">
+      <c r="J103">
         <v>102</v>
       </c>
-      <c r="L103" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N103" s="3" t="str">
+      <c r="K103" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M103" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EFAF' =&gt; ['Forward Active Fundamental Energy - Phase A ', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'FEx', 'Fundamental Energy', 91, 102, true],</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>54</v>
-      </c>
-      <c r="B104" s="1" t="s">
+    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="B104" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>298</v>
+      <c r="C104" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F104" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G104" s="7">
+      <c r="F104" s="7">
         <v>3</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="G104" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="H104" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="J104" s="7">
+      <c r="I104" s="7">
         <v>91</v>
       </c>
-      <c r="K104">
+      <c r="J104">
         <v>103</v>
       </c>
-      <c r="L104" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N104" s="3" t="str">
+      <c r="K104" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M104" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EFBF' =&gt; ['Forward Active Fundamental Energy - Phase B ', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'FEx', 'Fundamental Energy', 91, 103, true],</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>55</v>
-      </c>
-      <c r="B105" s="1" t="s">
+    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="B105" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>298</v>
+      <c r="C105" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F105" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G105" s="7">
+      <c r="F105" s="7">
         <v>3</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="G105" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="H105" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="J105" s="7">
+      <c r="I105" s="7">
         <v>91</v>
       </c>
-      <c r="K105">
+      <c r="J105">
         <v>104</v>
       </c>
-      <c r="L105" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N105" s="3" t="str">
+      <c r="K105" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M105" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EFCF' =&gt; ['Forward Active Fundamental Energy - Phase C', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'FEx', 'Fundamental Energy', 91, 104, true],</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>56</v>
-      </c>
-      <c r="B106" s="1" t="s">
+    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="B106" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>298</v>
+      <c r="C106" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F106" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G106" s="7">
+      <c r="F106" s="7">
         <v>3</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="G106" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="H106" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="J106" s="7">
+      <c r="I106" s="7">
         <v>91</v>
       </c>
-      <c r="K106">
+      <c r="J106">
         <v>105</v>
       </c>
-      <c r="L106" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N106" s="3" t="str">
+      <c r="K106" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M106" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EFTF' =&gt; ['Forward Active Fundamental Energyt - Total', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'FEx', 'Fundamental Energy', 91, 105, true],</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>69</v>
-      </c>
-      <c r="B107" s="1" t="s">
+    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="B107" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>298</v>
+      <c r="C107" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F107" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G107" s="7">
+      <c r="F107" s="7">
         <v>3</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="G107" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="H107" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="J107" s="7">
+      <c r="I107" s="7">
         <v>91</v>
       </c>
-      <c r="K107">
+      <c r="J107">
         <v>106</v>
       </c>
-      <c r="L107" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N107" s="3" t="str">
+      <c r="K107" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M107" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERAF' =&gt; ['Reverse Active Fundamental Energy - Phase A', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'FEx', 'Fundamental Energy', 91, 106, true],</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>70</v>
-      </c>
-      <c r="B108" s="1" t="s">
+    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="B108" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>298</v>
+      <c r="C108" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F108" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G108" s="7">
+      <c r="F108" s="7">
         <v>3</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="H108" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="J108" s="7">
+      <c r="I108" s="7">
         <v>91</v>
       </c>
-      <c r="K108">
+      <c r="J108">
         <v>107</v>
       </c>
-      <c r="L108" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N108" s="3" t="str">
+      <c r="K108" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M108" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERBF' =&gt; ['Reverse Active Fundamental Energy - Phase B', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'FEx', 'Fundamental Energy', 91, 107, true],</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>71</v>
-      </c>
-      <c r="B109" s="1" t="s">
+    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="B109" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>298</v>
+      <c r="C109" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F109" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G109" s="7">
+      <c r="F109" s="7">
         <v>3</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="G109" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="H109" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="J109" s="7">
+      <c r="I109" s="7">
         <v>91</v>
       </c>
-      <c r="K109">
+      <c r="J109">
         <v>108</v>
       </c>
-      <c r="L109" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N109" s="3" t="str">
+      <c r="K109" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M109" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERCF' =&gt; ['Reverse Active Fundamental Energy - Phase C', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'FEx', 'Fundamental Energy', 91, 108, true],</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>72</v>
-      </c>
-      <c r="B110" s="1" t="s">
+    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="B110" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="C110" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F110" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G110" s="7">
+      <c r="F110" s="7">
         <v>3</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="J110" s="7">
+      <c r="I110" s="7">
         <v>91</v>
       </c>
-      <c r="K110">
+      <c r="J110">
         <v>109</v>
       </c>
-      <c r="L110" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N110" s="3" t="str">
+      <c r="K110" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M110" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERTF' =&gt; ['Reverse Active Fundamental Energy - Total', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'FEx', 'Fundamental Energy', 91, 109, true],</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>33</v>
-      </c>
-      <c r="B111" s="1" t="s">
+    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="B111" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E111" s="4" t="s">
+      <c r="C111" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F111" s="4">
+      <c r="E111" s="4">
         <v>1</v>
       </c>
-      <c r="G111" s="7">
+      <c r="F111" s="7">
         <v>2</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="G111" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="H111" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="J111" s="7">
+      <c r="I111" s="7">
         <v>95</v>
       </c>
-      <c r="K111">
+      <c r="J111">
         <v>110</v>
       </c>
-      <c r="L111" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N111" s="3" t="str">
+      <c r="K111" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M111" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'PAH' =&gt; ['Active Harmonic Power - Phase A', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'HPx', 'Harmonic Power', 95, 110, true],</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>34</v>
-      </c>
-      <c r="B112" s="1" t="s">
+    <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="B112" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E112" s="4" t="s">
+      <c r="C112" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F112" s="4">
+      <c r="E112" s="4">
         <v>1</v>
       </c>
-      <c r="G112" s="7">
+      <c r="F112" s="7">
         <v>2</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="G112" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="I112" s="3" t="s">
+      <c r="H112" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="J112" s="7">
+      <c r="I112" s="7">
         <v>95</v>
       </c>
-      <c r="K112">
+      <c r="J112">
         <v>111</v>
       </c>
-      <c r="L112" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N112" s="3" t="str">
+      <c r="K112" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M112" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'PBH' =&gt; ['Active Harmonic Power - Phase B', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'HPx', 'Harmonic Power', 95, 111, true],</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>35</v>
-      </c>
-      <c r="B113" s="1" t="s">
+    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="B113" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="D113" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E113" s="4" t="s">
+      <c r="C113" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F113" s="4">
+      <c r="E113" s="4">
         <v>1</v>
       </c>
-      <c r="G113" s="7">
+      <c r="F113" s="7">
         <v>2</v>
       </c>
-      <c r="H113" s="7" t="s">
+      <c r="G113" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="H113" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="J113" s="7">
+      <c r="I113" s="7">
         <v>95</v>
       </c>
-      <c r="K113">
+      <c r="J113">
         <v>112</v>
       </c>
-      <c r="L113" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N113" s="3" t="str">
+      <c r="K113" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M113" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'PCH' =&gt; ['Active Harmonic Power - Phase C', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'HPx', 'Harmonic Power', 95, 112, true],</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>36</v>
-      </c>
-      <c r="B114" s="1" t="s">
+    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="B114" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E114" s="4" t="s">
+      <c r="C114" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F114" s="4">
+      <c r="E114" s="4">
         <v>1</v>
       </c>
-      <c r="G114" s="7">
+      <c r="F114" s="7">
         <v>2</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="G114" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="H114" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="J114" s="7">
+      <c r="I114" s="7">
         <v>95</v>
       </c>
-      <c r="K114">
+      <c r="J114">
         <v>113</v>
       </c>
-      <c r="L114" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N114" s="3" t="str">
+      <c r="K114" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M114" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'PTH' =&gt; ['Active Harmonic Power - Total', VARIABLETYPE_FLOAT, 'SM.Watt.2', 1, 2, 'HPx', 'Harmonic Power', 95, 113, true],</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>57</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="B115" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>298</v>
+      <c r="C115" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F115" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G115" s="7">
+      <c r="F115" s="7">
         <v>3</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="G115" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="J115" s="7">
+      <c r="I115" s="7">
         <v>96</v>
       </c>
-      <c r="K115">
+      <c r="J115">
         <v>114</v>
       </c>
-      <c r="L115" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N115" s="3" t="str">
+      <c r="K115" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M115" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EFAH' =&gt; ['Forward Active Harmonic Energy - Phase A ', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'HEx', 'Harmonic Energy', 96, 114, true],</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>58</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="B116" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>298</v>
+      <c r="C116" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F116" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G116" s="7">
+      <c r="F116" s="7">
         <v>3</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="H116" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="J116" s="7">
+      <c r="I116" s="7">
         <v>96</v>
       </c>
-      <c r="K116">
+      <c r="J116">
         <v>115</v>
       </c>
-      <c r="L116" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N116" s="3" t="str">
+      <c r="K116" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M116" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EFBH' =&gt; ['Forward Active Harmonic Energy - Phase B ', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'HEx', 'Harmonic Energy', 96, 115, true],</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>59</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="B117" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>298</v>
+      <c r="C117" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F117" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G117" s="7">
+      <c r="F117" s="7">
         <v>3</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="G117" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="I117" s="3" t="s">
+      <c r="H117" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="J117" s="7">
+      <c r="I117" s="7">
         <v>96</v>
       </c>
-      <c r="K117">
+      <c r="J117">
         <v>116</v>
       </c>
-      <c r="L117" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N117" s="3" t="str">
+      <c r="K117" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M117" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EFCH' =&gt; ['Forward Active Harmonic Energy - Phase C ', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'HEx', 'Harmonic Energy', 96, 116, true],</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>60</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="B118" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>298</v>
+      <c r="C118" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F118" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G118" s="7">
+      <c r="F118" s="7">
         <v>3</v>
       </c>
-      <c r="H118" s="7" t="s">
+      <c r="G118" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="H118" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="J118" s="7">
+      <c r="I118" s="7">
         <v>96</v>
       </c>
-      <c r="K118">
+      <c r="J118">
         <v>117</v>
       </c>
-      <c r="L118" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N118" s="3" t="str">
+      <c r="K118" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M118" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'EFTH' =&gt; ['Forward Active Harmonic Energy - Total ', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'HEx', 'Harmonic Energy', 96, 117, true],</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>73</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="B119" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="C119" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F119" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G119" s="7">
+      <c r="F119" s="7">
         <v>3</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="G119" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="I119" s="3" t="s">
+      <c r="H119" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="J119" s="7">
+      <c r="I119" s="7">
         <v>96</v>
       </c>
-      <c r="K119">
+      <c r="J119">
         <v>118</v>
       </c>
-      <c r="L119" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N119" s="3" t="str">
+      <c r="K119" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M119" s="3" t="str">
         <f t="shared" si="1"/>
         <v>'ERAH' =&gt; ['Reverse Active Harmonic Energy - Phase A', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'HEx', 'Harmonic Energy', 96, 118, true],</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>74</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="B120" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="C120" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>298</v>
+        <v>298</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E120" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F120" s="7">
+        <v>3</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="I120" s="7">
+        <v>96</v>
+      </c>
+      <c r="J120">
+        <v>119</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M120" s="3" t="str">
+        <f>"'"&amp;A120&amp;"' =&gt; ['"&amp;B120&amp;"', " &amp;C120&amp;", '"&amp;D120&amp;"', "&amp;E120 &amp;", " &amp;F120&amp;", '"&amp;G120&amp;"', '"&amp;H120&amp;"', " &amp; I120 &amp; ", " &amp;J120&amp;", "&amp;K120&amp;"],"</f>
+        <v>'ERBH' =&gt; ['Reverse Active Harmonic Energy - Phase B', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'HEx', 'Harmonic Energy', 96, 119, true],</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G120" s="7">
+      <c r="F121" s="7">
         <v>3</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="I120" s="3" t="s">
+      <c r="H121" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="J120" s="7">
+      <c r="I121" s="7">
         <v>96</v>
       </c>
-      <c r="K120">
-        <v>119</v>
-      </c>
-      <c r="L120" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N120" s="3" t="str">
-        <f>"'"&amp;B120&amp;"' =&gt; ['"&amp;C120&amp;"', " &amp;D120&amp;", '"&amp;E120&amp;"', "&amp;F120 &amp;", " &amp;G120&amp;", '"&amp;H120&amp;"', '"&amp;I120&amp;"', " &amp; J120 &amp; ", " &amp;K120&amp;", "&amp;L120&amp;"],"</f>
-        <v>'ERBH' =&gt; ['Reverse Active Harmonic Energy - Phase B', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'HEx', 'Harmonic Energy', 96, 119, true],</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>75</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E121" s="4" t="s">
+      <c r="J121">
+        <v>120</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L121" s="3"/>
+      <c r="M121" s="21" t="str">
+        <f>"'"&amp;A121&amp;"' =&gt; ['"&amp;B121&amp;"', " &amp;C121&amp;", '"&amp;D121&amp;"', "&amp;E121 &amp;", " &amp;F121&amp;", '"&amp;G121&amp;"', '"&amp;H121&amp;"', " &amp; I121 &amp; ", " &amp;J121&amp;", "&amp;K121&amp;"],"</f>
+        <v>'ERCH' =&gt; ['Reverse Active Harmonic Energy - Phase C', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'HEx', 'Harmonic Energy', 96, 120, true],</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G121" s="7">
+      <c r="F122" s="7">
         <v>3</v>
       </c>
-      <c r="H121" s="7" t="s">
+      <c r="G122" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="I121" s="3" t="s">
+      <c r="H122" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="J121" s="7">
+      <c r="I122" s="7">
         <v>96</v>
       </c>
-      <c r="K121">
-        <v>120</v>
-      </c>
-      <c r="L121" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M121" s="25"/>
-      <c r="N121" s="23" t="str">
-        <f>"'"&amp;B121&amp;"' =&gt; ['"&amp;C121&amp;"', " &amp;D121&amp;", '"&amp;E121&amp;"', "&amp;F121 &amp;", " &amp;G121&amp;", '"&amp;H121&amp;"', '"&amp;I121&amp;"', " &amp; J121 &amp; ", " &amp;K121&amp;", "&amp;L121&amp;"],"</f>
-        <v>'ERCH' =&gt; ['Reverse Active Harmonic Energy - Phase C', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'HEx', 'Harmonic Energy', 96, 120, true],</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>76</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G122" s="7">
-        <v>3</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="J122" s="7">
-        <v>96</v>
-      </c>
-      <c r="K122">
+      <c r="J122">
         <v>121</v>
       </c>
-      <c r="L122" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M122" s="25"/>
-      <c r="N122" s="23" t="str">
-        <f>"'"&amp;B122&amp;"' =&gt; ['"&amp;C122&amp;"', " &amp;D122&amp;", '"&amp;E122&amp;"', "&amp;F122 &amp;", " &amp;G122&amp;", '"&amp;H122&amp;"', '"&amp;I122&amp;"', " &amp; J122 &amp; ", " &amp;K122&amp;", "&amp;L122&amp;"],"</f>
+      <c r="K122" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L122" s="3"/>
+      <c r="M122" s="21" t="str">
+        <f>"'"&amp;A122&amp;"' =&gt; ['"&amp;B122&amp;"', " &amp;C122&amp;", '"&amp;D122&amp;"', "&amp;E122 &amp;", " &amp;F122&amp;", '"&amp;G122&amp;"', '"&amp;H122&amp;"', " &amp; I122 &amp; ", " &amp;J122&amp;", "&amp;K122&amp;"],"</f>
         <v>'ERTH' =&gt; ['Reverse Active Harmonic Energy - Total', VARIABLETYPE_FLOAT, 'SM.kWh.3', 0.001, 3, 'HEx', 'Harmonic Energy', 96, 121, true],</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K123"/>
-    </row>
-    <row r="124" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K124"/>
-    </row>
-    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K125"/>
-    </row>
-    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K126"/>
-    </row>
-    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K127"/>
-    </row>
-    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K128"/>
-    </row>
-    <row r="129" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K129"/>
-    </row>
-    <row r="130" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K130"/>
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J123"/>
+    </row>
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J124"/>
+    </row>
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J125"/>
+    </row>
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J126"/>
+    </row>
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J127"/>
+    </row>
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J128"/>
+    </row>
+    <row r="129" spans="10:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J129"/>
+    </row>
+    <row r="130" spans="10:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J130"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L122" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="11">
+  <autoFilter ref="A1:K122" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="10">
       <filters>
         <filter val="true"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L122">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K122">
       <sortCondition ref="J1:J122"/>
     </sortState>
   </autoFilter>
@@ -7337,32 +6955,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="13"/>
-    <col min="2" max="2" width="15.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="14"/>
-    <col min="5" max="16384" width="11.42578125" style="13"/>
+    <col min="1" max="1" width="11.42578125" style="12"/>
+    <col min="2" max="2" width="15.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="13"/>
+    <col min="5" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="17"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -7376,10 +6994,10 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="12"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -7393,10 +7011,10 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -7407,10 +7025,10 @@
       </c>
       <c r="D4" s="4"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -7424,10 +7042,10 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -7441,10 +7059,10 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -7458,10 +7076,10 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -7475,10 +7093,10 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -7492,10 +7110,10 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -7509,10 +7127,10 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -7526,10 +7144,10 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -7543,10 +7161,10 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -7560,10 +7178,10 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -7577,10 +7195,10 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -7594,10 +7212,10 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -7611,10 +7229,10 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -7628,10 +7246,10 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -7645,10 +7263,10 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -7662,10 +7280,10 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -7679,10 +7297,10 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -7696,10 +7314,10 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -7713,10 +7331,10 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -7730,10 +7348,10 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -7747,10 +7365,10 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -7764,10 +7382,10 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -7781,10 +7399,10 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -7798,10 +7416,10 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -7815,10 +7433,10 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -7832,10 +7450,10 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -7849,10 +7467,10 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -7866,10 +7484,10 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="12"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -7883,10 +7501,10 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -7900,10 +7518,10 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -7917,10 +7535,10 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="12"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -7934,10 +7552,10 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="12"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -7951,10 +7569,10 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -7968,10 +7586,10 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="12"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -7985,10 +7603,10 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="12"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -8002,10 +7620,10 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="12"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -8019,10 +7637,10 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="12"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -8036,10 +7654,10 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="12"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -8053,10 +7671,10 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="12"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -8070,10 +7688,10 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="12"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -8087,7 +7705,7 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -8101,7 +7719,7 @@
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -8115,7 +7733,7 @@
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -8129,7 +7747,7 @@
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -8145,7 +7763,7 @@
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -8161,7 +7779,7 @@
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -8177,7 +7795,7 @@
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -8193,7 +7811,7 @@
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -8209,7 +7827,7 @@
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -8225,7 +7843,7 @@
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -8241,7 +7859,7 @@
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -8257,7 +7875,7 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -8273,7 +7891,7 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
+      <c r="A57" s="12">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -8289,7 +7907,7 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
+      <c r="A58" s="12">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -8305,7 +7923,7 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -8321,7 +7939,7 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="13">
+      <c r="A60" s="12">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -8337,7 +7955,7 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -8353,7 +7971,7 @@
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
+      <c r="A62" s="12">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -8369,7 +7987,7 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="13">
+      <c r="A63" s="12">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -8385,7 +8003,7 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="13">
+      <c r="A64" s="12">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -8401,7 +8019,7 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
+      <c r="A65" s="12">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -8417,7 +8035,7 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
+      <c r="A66" s="12">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -8433,7 +8051,7 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="13">
+      <c r="A67" s="12">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -8449,7 +8067,7 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="13">
+      <c r="A68" s="12">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -8465,7 +8083,7 @@
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="13">
+      <c r="A69" s="12">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -8481,7 +8099,7 @@
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="13">
+      <c r="A70" s="12">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -8497,7 +8115,7 @@
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
+      <c r="A71" s="12">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -8513,7 +8131,7 @@
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
+      <c r="A72" s="12">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -8529,7 +8147,7 @@
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="13">
+      <c r="A73" s="12">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -8545,7 +8163,7 @@
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="13">
+      <c r="A74" s="12">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -8561,7 +8179,7 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="13">
+      <c r="A75" s="12">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -8577,7 +8195,7 @@
       <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="13">
+      <c r="A76" s="12">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -8593,7 +8211,7 @@
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="13">
+      <c r="A77" s="12">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -8609,7 +8227,7 @@
       <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="13">
+      <c r="A78" s="12">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -8625,7 +8243,7 @@
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="13">
+      <c r="A79" s="12">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -8641,7 +8259,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="13">
+      <c r="A80" s="12">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -8657,7 +8275,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="13">
+      <c r="A81" s="12">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -8673,7 +8291,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="13">
+      <c r="A82" s="12">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -8689,7 +8307,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="13">
+      <c r="A83" s="12">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -8705,7 +8323,7 @@
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="13">
+      <c r="A84" s="12">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -8721,7 +8339,7 @@
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="13">
+      <c r="A85" s="12">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -8737,7 +8355,7 @@
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="13">
+      <c r="A86" s="12">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -8753,7 +8371,7 @@
       <c r="G86" s="5"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="13">
+      <c r="A87" s="12">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -8769,7 +8387,7 @@
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="13">
+      <c r="A88" s="12">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -8785,7 +8403,7 @@
       <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="13">
+      <c r="A89" s="12">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -8801,7 +8419,7 @@
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="13">
+      <c r="A90" s="12">
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -8817,7 +8435,7 @@
       <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="13">
+      <c r="A91" s="12">
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -8833,7 +8451,7 @@
       <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="13">
+      <c r="A92" s="12">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -8849,7 +8467,7 @@
       <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="13">
+      <c r="A93" s="12">
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -8865,7 +8483,7 @@
       <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="13">
+      <c r="A94" s="12">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -8881,7 +8499,7 @@
       <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="13">
+      <c r="A95" s="12">
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -8897,7 +8515,7 @@
       <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="13">
+      <c r="A96" s="12">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -8913,7 +8531,7 @@
       <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="13">
+      <c r="A97" s="12">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -8929,7 +8547,7 @@
       <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="13">
+      <c r="A98" s="12">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -8945,7 +8563,7 @@
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="13">
+      <c r="A99" s="12">
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -8961,7 +8579,7 @@
       <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="13">
+      <c r="A100" s="12">
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -8977,7 +8595,7 @@
       <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="13">
+      <c r="A101" s="12">
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -8993,7 +8611,7 @@
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="13">
+      <c r="A102" s="12">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -9009,7 +8627,7 @@
       <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="13">
+      <c r="A103" s="12">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -9025,7 +8643,7 @@
       <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="13">
+      <c r="A104" s="12">
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -9041,7 +8659,7 @@
       <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="13">
+      <c r="A105" s="12">
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -9057,7 +8675,7 @@
       <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="13">
+      <c r="A106" s="12">
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -9073,7 +8691,7 @@
       <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="13">
+      <c r="A107" s="12">
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -9089,7 +8707,7 @@
       <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="13">
+      <c r="A108" s="12">
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -9105,7 +8723,7 @@
       <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="13">
+      <c r="A109" s="12">
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -9121,7 +8739,7 @@
       <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="13">
+      <c r="A110" s="12">
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -9137,7 +8755,7 @@
       <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="13">
+      <c r="A111" s="12">
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -9153,7 +8771,7 @@
       <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="13">
+      <c r="A112" s="12">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -9169,7 +8787,7 @@
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="13">
+      <c r="A113" s="12">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -9185,7 +8803,7 @@
       <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="13">
+      <c r="A114" s="12">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -9201,7 +8819,7 @@
       <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="13">
+      <c r="A115" s="12">
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -9217,7 +8835,7 @@
       <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="13">
+      <c r="A116" s="12">
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -9233,7 +8851,7 @@
       <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="13">
+      <c r="A117" s="12">
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -9249,7 +8867,7 @@
       <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="13">
+      <c r="A118" s="12">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -9262,7 +8880,7 @@
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="13">
+      <c r="A119" s="12">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">

--- a/MEC_Meter/doku/IPS-Modul PowerMeter DataPoints.xlsx
+++ b/MEC_Meter/doku/IPS-Modul PowerMeter DataPoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\ownCube\SmartHome\Hardware\Smart Meter - Verbund (Flexiciency)\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5A685E-728A-40B9-8EE3-0D0D296914F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C57973E-27FC-4904-83B6-F2D041F57BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25830" yWindow="345" windowWidth="24255" windowHeight="22530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1526,9 +1526,6 @@
     <t>Operating Time (last fctory reset)</t>
   </si>
   <si>
-    <t>Duration.ms</t>
-  </si>
-  <si>
     <t>Apparent Forward Energy - Phase A</t>
   </si>
   <si>
@@ -1728,6 +1725,9 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>Duration.INT.ms</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2152,7 @@
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2330,7 +2330,7 @@
         <v>299</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>495</v>
+        <v>562</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="M5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'TIME' =&gt; ['Operating Time (last fctory reset)', VARIABLETYPE_INTEGER, 'Duration.ms', 1, 0, 'Basic', 'Basic', 10, 4, true],</v>
+        <v>'TIME' =&gt; ['Operating Time (last fctory reset)', VARIABLETYPE_INTEGER, 'Duration.INT.ms', 1, 0, 'Basic', 'Basic', 10, 4, true],</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>296</v>
@@ -2737,7 +2737,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2762,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>296</v>
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3059,7 +3059,7 @@
         <v>89</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>298</v>
@@ -3215,7 +3215,7 @@
         <v>88</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>298</v>
@@ -3449,7 +3449,7 @@
         <v>252</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>298</v>
@@ -3464,10 +3464,10 @@
         <v>3</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I34" s="7">
         <v>36</v>
@@ -3488,7 +3488,7 @@
         <v>253</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>298</v>
@@ -3503,10 +3503,10 @@
         <v>3</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I35" s="7">
         <v>36</v>
@@ -3527,7 +3527,7 @@
         <v>254</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>298</v>
@@ -3542,10 +3542,10 @@
         <v>3</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I36" s="7">
         <v>36</v>
@@ -3944,7 +3944,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>298</v>
@@ -3959,10 +3959,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I47" s="7">
         <v>60</v>
@@ -3983,7 +3983,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>298</v>
@@ -3998,10 +3998,10 @@
         <v>2</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I48" s="7">
         <v>60</v>
@@ -4022,7 +4022,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>298</v>
@@ -4037,10 +4037,10 @@
         <v>2</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I49" s="7">
         <v>60</v>
@@ -4061,7 +4061,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>298</v>
@@ -4076,10 +4076,10 @@
         <v>2</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I50" s="7">
         <v>60</v>
@@ -4100,7 +4100,7 @@
         <v>62</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>298</v>
@@ -4115,10 +4115,10 @@
         <v>3</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I51" s="7">
         <v>65</v>
@@ -4139,7 +4139,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>298</v>
@@ -4154,10 +4154,10 @@
         <v>3</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I52" s="7">
         <v>65</v>
@@ -4178,7 +4178,7 @@
         <v>64</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>298</v>
@@ -4193,10 +4193,10 @@
         <v>3</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I53" s="7">
         <v>65</v>
@@ -4217,7 +4217,7 @@
         <v>65</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>298</v>
@@ -4232,10 +4232,10 @@
         <v>3</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I54" s="7">
         <v>65</v>
@@ -4271,10 +4271,10 @@
         <v>3</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I55" s="7">
         <v>65</v>
@@ -4310,10 +4310,10 @@
         <v>3</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I56" s="7">
         <v>65</v>
@@ -4349,10 +4349,10 @@
         <v>3</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I57" s="7">
         <v>65</v>
@@ -4388,10 +4388,10 @@
         <v>3</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I58" s="7">
         <v>65</v>
@@ -4412,7 +4412,7 @@
         <v>235</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>298</v>
@@ -4427,10 +4427,10 @@
         <v>3</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I59" s="7">
         <v>66</v>
@@ -4451,7 +4451,7 @@
         <v>236</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>298</v>
@@ -4466,10 +4466,10 @@
         <v>3</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I60" s="7">
         <v>66</v>
@@ -4490,7 +4490,7 @@
         <v>237</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>298</v>
@@ -4505,10 +4505,10 @@
         <v>3</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I61" s="7">
         <v>66</v>
@@ -4529,7 +4529,7 @@
         <v>238</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>298</v>
@@ -4544,10 +4544,10 @@
         <v>3</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I62" s="7">
         <v>66</v>
@@ -4568,7 +4568,7 @@
         <v>239</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>298</v>
@@ -4583,10 +4583,10 @@
         <v>3</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I63" s="7">
         <v>66</v>
@@ -4607,7 +4607,7 @@
         <v>240</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>298</v>
@@ -4622,10 +4622,10 @@
         <v>3</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I64" s="7">
         <v>66</v>
@@ -4646,7 +4646,7 @@
         <v>241</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>298</v>
@@ -4661,10 +4661,10 @@
         <v>3</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I65" s="7">
         <v>66</v>
@@ -4685,7 +4685,7 @@
         <v>242</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>298</v>
@@ -4700,10 +4700,10 @@
         <v>3</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I66" s="7">
         <v>66</v>
@@ -4724,7 +4724,7 @@
         <v>243</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>298</v>
@@ -4739,10 +4739,10 @@
         <v>3</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I67" s="7">
         <v>66</v>
@@ -4763,7 +4763,7 @@
         <v>244</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>298</v>
@@ -4778,10 +4778,10 @@
         <v>3</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I68" s="7">
         <v>66</v>
@@ -4802,7 +4802,7 @@
         <v>245</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>298</v>
@@ -4817,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I69" s="7">
         <v>66</v>
@@ -4841,7 +4841,7 @@
         <v>246</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>298</v>
@@ -4856,10 +4856,10 @@
         <v>3</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I70" s="7">
         <v>66</v>
@@ -4880,7 +4880,7 @@
         <v>247</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>298</v>
@@ -4895,10 +4895,10 @@
         <v>3</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I71" s="7">
         <v>66</v>
@@ -4919,7 +4919,7 @@
         <v>248</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>298</v>
@@ -4934,10 +4934,10 @@
         <v>3</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I72" s="7">
         <v>66</v>
@@ -4958,7 +4958,7 @@
         <v>249</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>298</v>
@@ -4973,10 +4973,10 @@
         <v>3</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I73" s="7">
         <v>66</v>
@@ -4997,7 +4997,7 @@
         <v>250</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>298</v>
@@ -5012,10 +5012,10 @@
         <v>3</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I74" s="7">
         <v>66</v>
@@ -5036,7 +5036,7 @@
         <v>42</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>298</v>
@@ -5051,10 +5051,10 @@
         <v>2</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I75" s="7">
         <v>70</v>
@@ -5075,7 +5075,7 @@
         <v>43</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>298</v>
@@ -5090,10 +5090,10 @@
         <v>2</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I76" s="7">
         <v>70</v>
@@ -5114,7 +5114,7 @@
         <v>44</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>298</v>
@@ -5129,10 +5129,10 @@
         <v>2</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I77" s="7">
         <v>70</v>
@@ -5153,7 +5153,7 @@
         <v>45</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>298</v>
@@ -5168,10 +5168,10 @@
         <v>2</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I78" s="7">
         <v>70</v>
@@ -5192,7 +5192,7 @@
         <v>226</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>298</v>
@@ -5207,10 +5207,10 @@
         <v>2</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I79" s="7">
         <v>70</v>
@@ -5231,7 +5231,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>298</v>
@@ -5246,10 +5246,10 @@
         <v>3</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I80" s="7">
         <v>75</v>
@@ -5270,7 +5270,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>298</v>
@@ -5285,10 +5285,10 @@
         <v>3</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I81" s="7">
         <v>75</v>
@@ -5309,7 +5309,7 @@
         <v>84</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>298</v>
@@ -5324,10 +5324,10 @@
         <v>3</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I82" s="7">
         <v>75</v>
@@ -5348,7 +5348,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>298</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I83" s="7">
         <v>75</v>
@@ -5387,7 +5387,7 @@
         <v>225</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>298</v>
@@ -5402,10 +5402,10 @@
         <v>3</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I84" s="7">
         <v>75</v>
@@ -5441,10 +5441,10 @@
         <v>3</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I85" s="7">
         <v>75</v>
@@ -5480,10 +5480,10 @@
         <v>3</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I86" s="7">
         <v>75</v>
@@ -5519,10 +5519,10 @@
         <v>3</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I87" s="7">
         <v>75</v>
@@ -5558,10 +5558,10 @@
         <v>3</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I88" s="7">
         <v>75</v>
@@ -5582,7 +5582,7 @@
         <v>231</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>298</v>
@@ -5597,10 +5597,10 @@
         <v>3</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I89" s="7">
         <v>75</v>
@@ -5621,7 +5621,7 @@
         <v>232</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>298</v>
@@ -5636,10 +5636,10 @@
         <v>3</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I90" s="7">
         <v>75</v>
@@ -5660,7 +5660,7 @@
         <v>233</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>298</v>
@@ -5675,10 +5675,10 @@
         <v>3</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I91" s="7">
         <v>75</v>
@@ -5699,7 +5699,7 @@
         <v>234</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>298</v>
@@ -5714,10 +5714,10 @@
         <v>3</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I92" s="7">
         <v>75</v>
@@ -5753,10 +5753,10 @@
         <v>2</v>
       </c>
       <c r="G93" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="I93" s="7">
         <v>80</v>
@@ -5792,10 +5792,10 @@
         <v>2</v>
       </c>
       <c r="G94" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="I94" s="7">
         <v>80</v>
@@ -5831,10 +5831,10 @@
         <v>2</v>
       </c>
       <c r="G95" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="I95" s="7">
         <v>80</v>
@@ -5870,10 +5870,10 @@
         <v>2</v>
       </c>
       <c r="G96" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="I96" s="7">
         <v>80</v>
@@ -5909,10 +5909,10 @@
         <v>2</v>
       </c>
       <c r="G97" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="I97" s="7">
         <v>80</v>
@@ -5948,10 +5948,10 @@
         <v>2</v>
       </c>
       <c r="G98" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="I98" s="7">
         <v>80</v>
@@ -5987,10 +5987,10 @@
         <v>2</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I99" s="7">
         <v>90</v>
@@ -6026,10 +6026,10 @@
         <v>2</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I100" s="7">
         <v>90</v>
@@ -6065,10 +6065,10 @@
         <v>2</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I101" s="7">
         <v>90</v>
@@ -6104,10 +6104,10 @@
         <v>2</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I102" s="7">
         <v>90</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I103" s="7">
         <v>91</v>
@@ -6182,10 +6182,10 @@
         <v>3</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I104" s="7">
         <v>91</v>
@@ -6221,10 +6221,10 @@
         <v>3</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I105" s="7">
         <v>91</v>
@@ -6260,10 +6260,10 @@
         <v>3</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I106" s="7">
         <v>91</v>
@@ -6299,10 +6299,10 @@
         <v>3</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I107" s="7">
         <v>91</v>
@@ -6338,10 +6338,10 @@
         <v>3</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I108" s="7">
         <v>91</v>
@@ -6377,10 +6377,10 @@
         <v>3</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I109" s="7">
         <v>91</v>
@@ -6416,10 +6416,10 @@
         <v>3</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I110" s="7">
         <v>91</v>
@@ -6455,10 +6455,10 @@
         <v>2</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I111" s="7">
         <v>95</v>
@@ -6494,10 +6494,10 @@
         <v>2</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I112" s="7">
         <v>95</v>
@@ -6533,10 +6533,10 @@
         <v>2</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I113" s="7">
         <v>95</v>
@@ -6572,10 +6572,10 @@
         <v>2</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I114" s="7">
         <v>95</v>
@@ -6611,10 +6611,10 @@
         <v>3</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I115" s="7">
         <v>96</v>
@@ -6650,10 +6650,10 @@
         <v>3</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I116" s="7">
         <v>96</v>
@@ -6689,10 +6689,10 @@
         <v>3</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I117" s="7">
         <v>96</v>
@@ -6728,10 +6728,10 @@
         <v>3</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I118" s="7">
         <v>96</v>
@@ -6767,10 +6767,10 @@
         <v>3</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I119" s="7">
         <v>96</v>
@@ -6806,10 +6806,10 @@
         <v>3</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I120" s="7">
         <v>96</v>
@@ -6845,10 +6845,10 @@
         <v>3</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I121" s="7">
         <v>96</v>
@@ -6885,10 +6885,10 @@
         <v>3</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I122" s="7">
         <v>96</v>
